--- a/mentor.xlsx
+++ b/mentor.xlsx
@@ -380,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,90 @@
       <c r="H4" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/mentor.xlsx
+++ b/mentor.xlsx
@@ -380,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,42 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/mentor.xlsx
+++ b/mentor.xlsx
@@ -380,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,102 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/mentor.xlsx
+++ b/mentor.xlsx
@@ -15,30 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
-  <si>
-    <t>jayant.18je0381@ece.iitism.ac.in</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>jayantanand00@gmail.com</t>
   </si>
   <si>
     <t>Jayant Anand</t>
   </si>
   <si>
-    <t>18JE0381_ECE_assignment_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> efasasd</t>
+    <t xml:space="preserve"> asdasd</t>
+  </si>
+  <si>
+    <t>Student</t>
   </si>
   <si>
     <t>IIT ISM DHANBAD</t>
   </si>
   <si>
-    <t>10-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> saddas</t>
-  </si>
-  <si>
-    <t>Student</t>
+    <t>Funding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sadasdasd</t>
   </si>
 </sst>
 </file>
@@ -380,27 +377,38 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="3" max="3" width="20.28515625" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2</v>
       </c>
@@ -410,21 +418,18 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2"/>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2"/>
       <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>3</v>
       </c>
@@ -434,21 +439,18 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3"/>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3"/>
       <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>4</v>
       </c>
@@ -459,22 +461,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>5</v>
       </c>
@@ -484,9 +483,8 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>6</v>
       </c>
@@ -496,9 +494,8 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>7</v>
       </c>
@@ -508,9 +505,8 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>8</v>
       </c>
@@ -520,9 +516,8 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>9</v>
       </c>
@@ -532,9 +527,8 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>10</v>
       </c>
@@ -544,9 +538,8 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>11</v>
       </c>
@@ -556,9 +549,8 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>12</v>
       </c>
@@ -568,127 +560,6 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/mentor.xlsx
+++ b/mentor.xlsx
@@ -377,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,182 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/mentor.xlsx
+++ b/mentor.xlsx
@@ -377,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,6 +736,116 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/mentor.xlsx
+++ b/mentor.xlsx
@@ -377,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,6 +846,28 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/mentor.xlsx
+++ b/mentor.xlsx
@@ -377,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,6 +868,28 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
